--- a/imf-gdp-per-capita.xlsx
+++ b/imf-gdp-per-capita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandriacabello/Desktop/wildlifeproject1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E467DB3C-6BF9-E443-8915-D9575639651D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E0C1DA26-1AE1-354B-8398-0CEF3D4E09A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21620" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPPPC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="229">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -697,10 +697,16 @@
     <t>Sub-Saharan Africa</t>
   </si>
   <si>
-    <t>©IMF, 2017</t>
-  </si>
-  <si>
     <t>Country GDP per capita (USD)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -1057,20 +1063,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L227"/>
+  <dimension ref="A1:O225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="107.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1">
         <v>2007</v>
@@ -1105,8 +1112,17 @@
       <c r="L1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1143,8 +1159,20 @@
       <c r="L2">
         <v>1888.864</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <f>AVERAGE(B2:L2)</f>
+        <v>1712.3937272727273</v>
+      </c>
+      <c r="N2">
+        <f>MEDIAN(B2:L2)</f>
+        <v>1875.0160000000001</v>
+      </c>
+      <c r="O2">
+        <f>_xlfn.STDEV.S(B2:L2)</f>
+        <v>311.79210344044509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1181,8 +1209,20 @@
       <c r="L3">
         <v>12471.736000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">AVERAGE(B3:L3)</f>
+        <v>10128.351727272726</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="1">MEDIAN(B3:L3)</f>
+        <v>10190.221</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="2">_xlfn.STDEV.S(B3:L3)</f>
+        <v>1455.2909520870544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1219,8 +1259,20 @@
       <c r="L4">
         <v>15149.596</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>13487.115909090908</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>13431.874</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>1123.5392367847644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1257,8 +1309,20 @@
       <c r="L5">
         <v>6813.2049999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>6280.1628181818178</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>6307.0590000000002</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>591.38969713985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1295,8 +1359,20 @@
       <c r="L6">
         <v>26198.35</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>23466.609909090908</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>23074.204000000002</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>2031.5288799724433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1333,8 +1409,20 @@
       <c r="L7">
         <v>20676.523000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>19235.232999999997</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>19817.45</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>1361.3742517759763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1371,8 +1459,20 @@
       <c r="L8">
         <v>9098.375</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>7498.5108181818177</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>7418.098</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>1009.9201939549373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1409,8 +1509,20 @@
       <c r="L9">
         <v>49882.303999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>44303.584545454542</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>44361.02</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>3618.7091618191798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1447,8 +1559,20 @@
       <c r="L10">
         <v>49247.222999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>44848.223090909079</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>45275.849000000002</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>2724.4090462307763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1485,8 +1609,20 @@
       <c r="L11">
         <v>17432.947</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>15954.71872727273</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>16062.834000000001</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>1861.5262854806938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1523,8 +1659,20 @@
       <c r="L12">
         <v>25079.637999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>24358.751090909089</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>24508.454000000002</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>630.57078176925631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1561,8 +1709,20 @@
       <c r="L13">
         <v>51845.523999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>45055.454636363633</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>44495.33</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>4653.8124092058169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1599,8 +1759,20 @@
       <c r="L14">
         <v>4206.8379999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>3055.1733636363642</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>2978.6289999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>667.93431354695997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1637,8 +1809,20 @@
       <c r="L15">
         <v>17507.948</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>16019.515363636363</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>15892.96</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>813.04042597847149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1675,8 +1859,20 @@
       <c r="L16">
         <v>18616.141</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>16795.576909090913</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>17800.977999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>2083.7481913969045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1713,8 +1909,20 @@
       <c r="L17">
         <v>46300.614999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>41936.918090909086</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>41535.358999999997</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2476.8975610491211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1751,8 +1959,20 @@
       <c r="L18">
         <v>8341.3109999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>7862.7335454545455</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>7996.4989999999998</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>461.51371333306292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1789,8 +2009,20 @@
       <c r="L19">
         <v>2219.0059999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1889.5516363636366</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1829.787</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>195.64987739596094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1827,8 +2059,20 @@
       <c r="L20">
         <v>8720.4490000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>6659.7023636363629</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>6822.3490000000002</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>1329.9126441472972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1865,8 +2109,20 @@
       <c r="L21">
         <v>7542.74</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>6024.5327272727272</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>5899.7849999999999</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>976.76753177325509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1903,8 +2159,20 @@
       <c r="L22">
         <v>11404.133</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>9661.4515454545453</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>9400.8950000000004</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>990.40037526612105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1941,8 +2209,20 @@
       <c r="L23">
         <v>18146.241000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>14764.252000000002</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>14383.285</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>2287.0119809734147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1979,8 +2259,20 @@
       <c r="L24">
         <v>15500.384</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>14822.167909090907</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>15237.734</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>1237.2090530856501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2017,8 +2309,20 @@
       <c r="L25">
         <v>76743.073999999993</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>79504.922272727286</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>79504.183999999994</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>2334.9954482998933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2055,8 +2359,20 @@
       <c r="L26">
         <v>21578.468000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>17418.707818181821</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>17113.187000000002</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>2289.4847497950964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2093,8 +2409,20 @@
       <c r="L27">
         <v>1884.4829999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1536.9868181818181</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>1547.65</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>213.07867820822588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2131,8 +2459,20 @@
       <c r="L28">
         <v>808.28499999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>780.5736363636363</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>802.774</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>64.287546640500651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2169,8 +2509,20 @@
       <c r="L29">
         <v>6942.183</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>6159.763727272727</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>6205.67</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>447.48631755531727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2207,8 +2559,20 @@
       <c r="L30">
         <v>4010.165</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>2944.7447272727277</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>2840.4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>621.23979156121084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2245,8 +2609,20 @@
       <c r="L31">
         <v>3359.2829999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>2818.7822727272728</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>2741.1579999999999</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>330.90468615209579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2283,8 +2659,20 @@
       <c r="L32">
         <v>48141.358999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>42813.340000000004</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>42537.462</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>3256.3681096692058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2321,8 +2709,20 @@
       <c r="L33">
         <v>681.22400000000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>770.11554545454533</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>840.72500000000002</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>136.2819396812101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2359,8 +2759,20 @@
       <c r="L34">
         <v>2432.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>2282.9523636363638</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>2365.683</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>279.66356722400002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2397,8 +2809,20 @@
       <c r="L35">
         <v>24587.714</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>21127.344272727274</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>21540.381000000001</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>2661.9094504502004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2435,8 +2859,20 @@
       <c r="L36">
         <v>16624.414000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>11403.898454545457</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>11252.083000000001</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>3275.5449031938228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2473,8 +2909,20 @@
       <c r="L37">
         <v>14454.971</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>12139.700181818182</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>12135.873</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>1692.8720778015638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2511,8 +2959,20 @@
       <c r="L38">
         <v>1559.9580000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>1491.9549090909093</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>1491.662</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>43.298752835282777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2549,8 +3009,20 @@
       <c r="L39">
         <v>784.59500000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>645.25400000000002</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>631.79200000000003</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>106.13335647382441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2587,8 +3059,20 @@
       <c r="L40">
         <v>6707.2030000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>6447.3447272727271</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>6641.8320000000003</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>683.99331726941398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2625,8 +3109,20 @@
       <c r="L41">
         <v>17149.047999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>14144.898454545455</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>14138.748</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>1804.3580646014398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2663,8 +3159,20 @@
       <c r="L42">
         <v>24094.846000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>21009.272363636366</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>20583.060000000001</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>1427.5453314006722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2701,8 +3209,20 @@
       <c r="L43">
         <v>36556.614999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>34485.863181818175</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>34961.29</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>1488.4567994353629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2739,8 +3259,20 @@
       <c r="L44">
         <v>35223.444000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>29759.404000000002</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>28802.61</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>2796.2447377463227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2777,8 +3309,20 @@
       <c r="L45">
         <v>3856.9850000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>2945.6451818181818</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>2710.7350000000001</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>490.16069239705797</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2815,8 +3359,20 @@
       <c r="L46">
         <v>49612.574999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>44692.316636363634</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="1"/>
+        <v>43933.199000000001</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>2799.1062180969579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2853,8 +3409,20 @@
       <c r="L47">
         <v>3567.4140000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>2867.7068181818181</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>2814.2660000000001</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>396.28550949153129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2891,8 +3459,20 @@
       <c r="L48">
         <v>12034.887000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>10502.886272727272</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>10352.115</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>817.78534089320692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2929,8 +3509,20 @@
       <c r="L49">
         <v>16965.452000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>12858.169636363637</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>12275.308000000001</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="2"/>
+        <v>2373.9048133694901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2967,8 +3559,20 @@
       <c r="L50">
         <v>11234.031000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>10157.281636363636</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>10443.709999999999</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>1169.1618352591988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3005,8 +3609,20 @@
       <c r="L51">
         <v>12993.967000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>11258.450363636364</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>11210.449000000001</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>1048.4422236615878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3043,8 +3659,20 @@
       <c r="L52">
         <v>8934.4349999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>7765.2299090909082</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>7673.14</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>674.9078696981469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3081,8 +3709,20 @@
       <c r="L53">
         <v>34864.862000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>45481.35</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>47700.637999999999</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>5330.7242219028731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3119,8 +3759,20 @@
       <c r="L54">
         <v>1433.9490000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>1278.5346363636365</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>1290.1780000000001</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>112.74416254713387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3157,8 +3809,20 @@
       <c r="L55">
         <v>31473.245999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>25978.265363636365</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>25494.056</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="2"/>
+        <v>3261.8671277387311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3195,8 +3859,20 @@
       <c r="L56">
         <v>2112.9760000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>1406.3342727272729</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>1354.3119999999999</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="2"/>
+        <v>430.95186466497285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3909,20 @@
       <c r="L57">
         <v>15202.877</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>12576.598181818183</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>12215.432000000001</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="2"/>
+        <v>1586.6374858664926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3271,8 +3959,20 @@
       <c r="L58">
         <v>9857.3080000000009</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>8130.8924545454538</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>7820.7560000000003</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="2"/>
+        <v>1054.9523043517572</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3309,8 +4009,20 @@
       <c r="L59">
         <v>44050.076000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>40520.039090909093</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="1"/>
+        <v>40490.057000000001</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="2"/>
+        <v>1728.084371931328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3347,8 +4059,20 @@
       <c r="L60">
         <v>43550.593999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>39418.944272727269</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="1"/>
+        <v>39251.050000000003</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="2"/>
+        <v>2420.5052462355902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3385,8 +4109,20 @@
       <c r="L61">
         <v>19266.294999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>16933.175090909095</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="1"/>
+        <v>16665.155999999999</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="2"/>
+        <v>1595.9081293198212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3423,8 +4159,20 @@
       <c r="L62">
         <v>1686.338</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>1584.8104545454551</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="1"/>
+        <v>1610.162</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="2"/>
+        <v>82.480406470098828</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3461,8 +4209,20 @@
       <c r="L63">
         <v>10644.369000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>7983.8779090909111</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>8002.44</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="2"/>
+        <v>1741.7356255545994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3499,8 +4259,20 @@
       <c r="L64">
         <v>50206.21</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>44076.683636363647</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>44266.072999999997</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="2"/>
+        <v>3872.7036344843182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3537,8 +4309,20 @@
       <c r="L65">
         <v>4604.5150000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>3664.5772727272724</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="1"/>
+        <v>3819.2020000000002</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="2"/>
+        <v>705.88468632108584</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3575,8 +4359,20 @@
       <c r="L66">
         <v>27775.956999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>27844.649272727271</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="1"/>
+        <v>26850.252</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="2"/>
+        <v>2301.2353646334868</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3613,8 +4409,20 @@
       <c r="L67">
         <v>14779.483</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <f t="shared" ref="M67:M130" si="3">AVERAGE(B67:L67)</f>
+        <v>12206.612181818184</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="4">MEDIAN(B67:L67)</f>
+        <v>11640.944</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O130" si="5">_xlfn.STDEV.S(B67:L67)</f>
+        <v>1390.6921321151942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3651,8 +4459,20 @@
       <c r="L68">
         <v>8172.6930000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <f t="shared" si="3"/>
+        <v>7127.8987272727272</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="4"/>
+        <v>7026.1779999999999</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="5"/>
+        <v>648.52089410089047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3689,8 +4509,20 @@
       <c r="L69">
         <v>2039.423</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <f t="shared" si="3"/>
+        <v>1697.5895454545455</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="4"/>
+        <v>1689.732</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="5"/>
+        <v>185.426869531016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3727,8 +4559,20 @@
       <c r="L70">
         <v>1805.9359999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <f t="shared" si="3"/>
+        <v>1549.5115454545455</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="4"/>
+        <v>1578.0229999999999</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="5"/>
+        <v>151.5859002066905</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3765,8 +4609,20 @@
       <c r="L71">
         <v>8265.9549999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71">
+        <f t="shared" si="3"/>
+        <v>6509.125272727274</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="4"/>
+        <v>6469.0889999999999</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="5"/>
+        <v>1134.3736935855841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3803,8 +4659,20 @@
       <c r="L72">
         <v>1810.296</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <f t="shared" si="3"/>
+        <v>1638.4243636363638</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="4"/>
+        <v>1614.06</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="5"/>
+        <v>121.58865980367803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3841,8 +4709,20 @@
       <c r="L73">
         <v>5498.57</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <f t="shared" si="3"/>
+        <v>4665.5854545454558</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="4"/>
+        <v>4632.1000000000004</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="5"/>
+        <v>487.56277666437234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3879,8 +4759,20 @@
       <c r="L74">
         <v>61015.587</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74">
+        <f t="shared" si="3"/>
+        <v>51333.221181818175</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="4"/>
+        <v>51156.822</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="5"/>
+        <v>6197.4065751371127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3917,8 +4809,20 @@
       <c r="L75">
         <v>28909.644</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <f t="shared" si="3"/>
+        <v>24202.840545454543</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="4"/>
+        <v>22983.021000000001</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="5"/>
+        <v>2502.9847812577832</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3955,8 +4859,20 @@
       <c r="L76">
         <v>52150.027000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <f t="shared" si="3"/>
+        <v>43192.954636363647</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="4"/>
+        <v>41869.180999999997</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="5"/>
+        <v>4274.1669303528442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3993,8 +4909,20 @@
       <c r="L77">
         <v>7173.5280000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <f t="shared" si="3"/>
+        <v>5166.0280909090907</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="4"/>
+        <v>5033.9750000000004</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="5"/>
+        <v>1209.8548434468842</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4031,8 +4959,20 @@
       <c r="L78">
         <v>12378.228999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <f t="shared" si="3"/>
+        <v>9603.0111818181813</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="4"/>
+        <v>9554.3420000000006</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="5"/>
+        <v>1754.0379585429657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4069,8 +5009,20 @@
       <c r="L79">
         <v>20029.538</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <f t="shared" si="3"/>
+        <v>17515.422727272729</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="4"/>
+        <v>17107.303</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="5"/>
+        <v>1182.7481162234071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4107,8 +5059,20 @@
       <c r="L80">
         <v>17003.616999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <f t="shared" si="3"/>
+        <v>14174.279545454547</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="4"/>
+        <v>14986.094999999999</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="5"/>
+        <v>2291.0398166471409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4145,8 +5109,20 @@
       <c r="L81">
         <v>72632.447</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <f t="shared" si="3"/>
+        <v>52205.758727272732</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="4"/>
+        <v>46059.633999999998</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="5"/>
+        <v>11311.444766082557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4183,8 +5159,20 @@
       <c r="L82">
         <v>36249.877</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <f t="shared" si="3"/>
+        <v>31331.659272727269</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="4"/>
+        <v>31235.983</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="5"/>
+        <v>3251.4037480834058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4221,8 +5209,20 @@
       <c r="L83">
         <v>37970.495000000003</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <f t="shared" si="3"/>
+        <v>35626.343090909097</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="4"/>
+        <v>35544.006000000001</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="5"/>
+        <v>1090.9329359727355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4259,8 +5259,20 @@
       <c r="L84">
         <v>9211.6190000000006</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <f t="shared" si="3"/>
+        <v>8517.8413636363639</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="4"/>
+        <v>8385.8169999999991</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="5"/>
+        <v>347.9249054673358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4297,8 +5309,20 @@
       <c r="L85">
         <v>42658.713000000003</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <f t="shared" si="3"/>
+        <v>37539.577181818182</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="4"/>
+        <v>37059.936000000002</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="5"/>
+        <v>3052.4044580370023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4335,8 +5359,20 @@
       <c r="L86">
         <v>12487.332</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <f t="shared" si="3"/>
+        <v>11349.276545454546</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="4"/>
+        <v>11422.468000000001</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="5"/>
+        <v>873.02279734418892</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4373,8 +5409,20 @@
       <c r="L87">
         <v>26071.703000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <f t="shared" si="3"/>
+        <v>21959.741454545452</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="4"/>
+        <v>22277.896000000001</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="5"/>
+        <v>3162.9726762647911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4411,8 +5459,20 @@
       <c r="L88">
         <v>3496.2910000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <f t="shared" si="3"/>
+        <v>2872.0734545454543</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="4"/>
+        <v>2842.337</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="5"/>
+        <v>394.26255671706184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4449,8 +5509,20 @@
       <c r="L89">
         <v>1957.989</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <f t="shared" si="3"/>
+        <v>1682.5478181818182</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="4"/>
+        <v>1620.6569999999999</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="5"/>
+        <v>158.90758268051164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -4487,8 +5559,20 @@
       <c r="L90">
         <v>39387.495999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <f t="shared" si="3"/>
+        <v>32483.558363636359</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="4"/>
+        <v>32362.258999999998</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="5"/>
+        <v>4398.1254089234499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4525,8 +5609,20 @@
       <c r="L91">
         <v>10383.067999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <f t="shared" si="3"/>
+        <v>8578.8661818181827</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="4"/>
+        <v>8531.4210000000003</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="5"/>
+        <v>1114.2326239190586</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4563,8 +5659,20 @@
       <c r="L92">
         <v>69669.483999999997</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92">
+        <f t="shared" si="3"/>
+        <v>68458.734454545469</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="4"/>
+        <v>69669.483999999997</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="5"/>
+        <v>3646.6745607659141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4601,8 +5709,20 @@
       <c r="L93">
         <v>3653.91</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <f t="shared" si="3"/>
+        <v>3041.3158181818185</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="4"/>
+        <v>2900.9879999999998</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="5"/>
+        <v>394.58527759429262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4639,8 +5759,20 @@
       <c r="L94">
         <v>7367.0770000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <f t="shared" si="3"/>
+        <v>5268.9689999999991</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="4"/>
+        <v>5153.34</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="5"/>
+        <v>1291.2364054812786</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4677,8 +5809,20 @@
       <c r="L95">
         <v>27291.271000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95">
+        <f t="shared" si="3"/>
+        <v>21994.771363636366</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="4"/>
+        <v>21296.115000000002</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="5"/>
+        <v>3063.7859486832444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4715,8 +5859,20 @@
       <c r="L96">
         <v>19485.774000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <f t="shared" si="3"/>
+        <v>16768.918909090913</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="4"/>
+        <v>17038.03</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="5"/>
+        <v>2265.3832612595479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4753,8 +5909,20 @@
       <c r="L97">
         <v>3868.5059999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <f t="shared" si="3"/>
+        <v>3048.5210000000002</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="4"/>
+        <v>3090.28</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="5"/>
+        <v>540.29166962391878</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4791,8 +5959,20 @@
       <c r="L98">
         <v>867.10199999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98">
+        <f t="shared" si="3"/>
+        <v>792.00700000000006</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="4"/>
+        <v>825.72299999999996</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="5"/>
+        <v>91.066385997247593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4829,8 +6009,20 @@
       <c r="L99">
         <v>9792.0550000000003</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99">
+        <f t="shared" si="3"/>
+        <v>18337.744545454541</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="4"/>
+        <v>14986.552</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="5"/>
+        <v>10926.801805599571</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4867,8 +6059,20 @@
       <c r="L100">
         <v>31935.16</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100">
+        <f t="shared" si="3"/>
+        <v>25003.485727272728</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="4"/>
+        <v>24384.274000000001</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="5"/>
+        <v>4091.2743863368323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4905,8 +6109,20 @@
       <c r="L101">
         <v>109191.77499999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <f t="shared" si="3"/>
+        <v>96363.574000000008</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="4"/>
+        <v>92969.885999999999</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="5"/>
+        <v>6991.3133280858192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4943,8 +6159,20 @@
       <c r="L102">
         <v>114429.785</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <f t="shared" si="3"/>
+        <v>102032.79954545455</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="4"/>
+        <v>99448.820999999996</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="5"/>
+        <v>22398.937241035233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4981,8 +6209,20 @@
       <c r="L103">
         <v>1554.079</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103">
+        <f t="shared" si="3"/>
+        <v>1433.7551818181817</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="4"/>
+        <v>1414.17</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="5"/>
+        <v>61.584294809339475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -5019,8 +6259,20 @@
       <c r="L104">
         <v>1172.127</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104">
+        <f t="shared" si="3"/>
+        <v>1023.1330909090909</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="4"/>
+        <v>1024.884</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="5"/>
+        <v>113.63820756898153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5057,8 +6309,20 @@
       <c r="L105">
         <v>28870.792000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <f t="shared" si="3"/>
+        <v>22981.143636363639</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="4"/>
+        <v>22742.219000000001</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="5"/>
+        <v>3536.4867528596105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -5095,8 +6359,20 @@
       <c r="L106">
         <v>19178.036</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106">
+        <f t="shared" si="3"/>
+        <v>15455.394636363635</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="4"/>
+        <v>14963.825000000001</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="5"/>
+        <v>2390.992012114486</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5133,8 +6409,20 @@
       <c r="L107">
         <v>2168.8180000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107">
+        <f t="shared" si="3"/>
+        <v>1885.3662727272726</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="4"/>
+        <v>1843.482</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="5"/>
+        <v>154.51371251127904</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5171,8 +6459,20 @@
       <c r="L108">
         <v>42531.906000000003</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108">
+        <f t="shared" si="3"/>
+        <v>32630.806181818185</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="4"/>
+        <v>30656.145</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="5"/>
+        <v>5415.0412232802728</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -5209,8 +6509,20 @@
       <c r="L109">
         <v>3436.192</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <f t="shared" si="3"/>
+        <v>3048.6183636363639</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="4"/>
+        <v>3139.777</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="5"/>
+        <v>275.70365001982566</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5247,8 +6559,20 @@
       <c r="L110">
         <v>4473.8389999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110">
+        <f t="shared" si="3"/>
+        <v>3937.574090909091</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="4"/>
+        <v>3910.9940000000001</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="5"/>
+        <v>384.43312352695483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5285,8 +6609,20 @@
       <c r="L111">
         <v>21628.123</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111">
+        <f t="shared" si="3"/>
+        <v>17122.55827272727</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="4"/>
+        <v>16976.821</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="5"/>
+        <v>2776.1615793884803</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5323,8 +6659,20 @@
       <c r="L112">
         <v>19479.603999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112">
+        <f t="shared" si="3"/>
+        <v>17046.290909090909</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="4"/>
+        <v>17161.242999999999</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="5"/>
+        <v>1558.460449736948</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5361,8 +6709,20 @@
       <c r="L113">
         <v>3391.6039999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113">
+        <f t="shared" si="3"/>
+        <v>3006.4725454545451</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="4"/>
+        <v>3011.194</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="5"/>
+        <v>210.06254652477372</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -5399,8 +6759,20 @@
       <c r="L114">
         <v>5657.4769999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114">
+        <f t="shared" si="3"/>
+        <v>4422.5707272727268</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="4"/>
+        <v>4225.5659999999998</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="5"/>
+        <v>774.61680087900061</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -5437,8 +6809,20 @@
       <c r="L115">
         <v>12550.825999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115">
+        <f t="shared" si="3"/>
+        <v>9719.19</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="4"/>
+        <v>9879.6980000000003</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="5"/>
+        <v>2383.835034504234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -5475,8 +6859,20 @@
       <c r="L116">
         <v>17438.617999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116">
+        <f t="shared" si="3"/>
+        <v>14723.683000000001</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="4"/>
+        <v>14273.414000000001</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="5"/>
+        <v>1509.6697244977127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -5513,8 +6909,20 @@
       <c r="L117">
         <v>8611.5470000000005</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <f t="shared" si="3"/>
+        <v>7106.8206363636382</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="4"/>
+        <v>7095.0360000000001</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="5"/>
+        <v>972.43162939768047</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -5551,8 +6959,20 @@
       <c r="L118">
         <v>1265.68</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <f t="shared" si="3"/>
+        <v>1016.9032727272727</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="4"/>
+        <v>1010.222</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="5"/>
+        <v>172.11076570981399</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -5589,8 +7009,20 @@
       <c r="L119">
         <v>6285.1710000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <f t="shared" si="3"/>
+        <v>4460.6256363636376</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="4"/>
+        <v>4262.683</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="5"/>
+        <v>1070.7828456120519</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -5627,8 +7059,20 @@
       <c r="L120">
         <v>11528.009</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120">
+        <f t="shared" si="3"/>
+        <v>9698.825090909093</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="4"/>
+        <v>9592.0239999999994</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="5"/>
+        <v>1371.4716424709859</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -5665,8 +7109,20 @@
       <c r="L121">
         <v>11994.748</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121">
+        <f t="shared" si="3"/>
+        <v>7693.9275454545432</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="4"/>
+        <v>6589.607</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="5"/>
+        <v>3169.381640296463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -5703,8 +7159,20 @@
       <c r="L122">
         <v>2690.3029999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <f t="shared" si="3"/>
+        <v>2161.7825454545455</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="4"/>
+        <v>2153.7379999999998</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="5"/>
+        <v>328.48092921092478</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -5741,8 +7209,20 @@
       <c r="L123">
         <v>53581.669000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123">
+        <f t="shared" si="3"/>
+        <v>47375.053909090915</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="4"/>
+        <v>46491.076999999997</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="5"/>
+        <v>3084.7814349713158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -5779,8 +7259,20 @@
       <c r="L124">
         <v>38501.531999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124">
+        <f t="shared" si="3"/>
+        <v>33666.189090909094</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="4"/>
+        <v>33541.913999999997</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="5"/>
+        <v>2880.5927297454068</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -5817,8 +7309,20 @@
       <c r="L125">
         <v>5822.9309999999996</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <f t="shared" si="3"/>
+        <v>4606.2565454545447</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="4"/>
+        <v>4535.2870000000003</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="5"/>
+        <v>737.05946369629976</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -5855,8 +7359,20 @@
       <c r="L126">
         <v>1152.691</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126">
+        <f t="shared" si="3"/>
+        <v>961.25236363636361</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="4"/>
+        <v>967.68299999999999</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="5"/>
+        <v>132.77815611483169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -5893,8 +7409,20 @@
       <c r="L127">
         <v>5927.4939999999997</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127">
+        <f t="shared" si="3"/>
+        <v>5364.9897272727276</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="4"/>
+        <v>5521.8289999999997</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="5"/>
+        <v>695.27074301614141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -5931,8 +7459,20 @@
       <c r="L128">
         <v>70590.225000000006</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128">
+        <f t="shared" si="3"/>
+        <v>65050.523363636363</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="4"/>
+        <v>64629.491999999998</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="5"/>
+        <v>3404.0035308561673</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -5969,8 +7509,20 @@
       <c r="L129">
         <v>45464.154999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129">
+        <f t="shared" si="3"/>
+        <v>44861.337999999996</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="4"/>
+        <v>45464.154999999999</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="5"/>
+        <v>2108.8389196018743</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6007,8 +7559,20 @@
       <c r="L130">
         <v>5353.6540000000005</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130">
+        <f t="shared" si="3"/>
+        <v>4494.981545454546</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="4"/>
+        <v>4392.9719999999998</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="5"/>
+        <v>480.11518023518471</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6045,8 +7609,20 @@
       <c r="L131">
         <v>16471.865000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131">
+        <f t="shared" ref="M131:M194" si="6">AVERAGE(B131:L131)</f>
+        <v>13381.321181818181</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="7">MEDIAN(B131:L131)</f>
+        <v>13371.8</v>
+      </c>
+      <c r="O131">
+        <f t="shared" ref="O131:O194" si="8">_xlfn.STDEV.S(B131:L131)</f>
+        <v>2074.4445444212311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6083,8 +7659,20 @@
       <c r="L132">
         <v>24262.366999999998</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132">
+        <f t="shared" si="6"/>
+        <v>18331.252181818185</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="7"/>
+        <v>18447.577000000001</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="8"/>
+        <v>3911.1378825611414</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6121,8 +7709,20 @@
       <c r="L133">
         <v>3803.1790000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133">
+        <f t="shared" si="6"/>
+        <v>3127.6640000000002</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="7"/>
+        <v>2966.047</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="8"/>
+        <v>447.11259460006062</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6159,8 +7759,20 @@
       <c r="L134">
         <v>9785.4860000000008</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134">
+        <f t="shared" si="6"/>
+        <v>7848.7470909090916</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="7"/>
+        <v>7422.6949999999997</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="8"/>
+        <v>1289.5108990709937</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6197,8 +7809,20 @@
       <c r="L135">
         <v>13341.86</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135">
+        <f t="shared" si="6"/>
+        <v>10782.628090909091</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="7"/>
+        <v>10954.717000000001</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="8"/>
+        <v>1826.9507309838141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6235,8 +7859,20 @@
       <c r="L136">
         <v>8229.3709999999992</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136">
+        <f t="shared" si="6"/>
+        <v>6314.4885454545465</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="7"/>
+        <v>6122.2979999999998</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="8"/>
+        <v>1119.932160559852</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6273,8 +7909,20 @@
       <c r="L137">
         <v>29250.668000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137">
+        <f t="shared" si="6"/>
+        <v>23423.470909090913</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="7"/>
+        <v>23359.53</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="8"/>
+        <v>3563.0373167298021</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6311,8 +7959,20 @@
       <c r="L138">
         <v>30257.708999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138">
+        <f t="shared" si="6"/>
+        <v>27072.32527272727</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="7"/>
+        <v>26496.473999999998</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="8"/>
+        <v>1437.2418694475948</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6349,8 +8009,20 @@
       <c r="L139">
         <v>37895.355000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139">
+        <f t="shared" si="6"/>
+        <v>35237.394999999997</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="7"/>
+        <v>35259.845999999998</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="8"/>
+        <v>2103.7039919903191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6387,8 +8059,20 @@
       <c r="L140">
         <v>124927.43799999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140">
+        <f t="shared" si="6"/>
+        <v>128286.19163636364</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="7"/>
+        <v>127226.395</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="8"/>
+        <v>13932.70645499238</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6425,8 +8109,20 @@
       <c r="L141">
         <v>23990.664000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141">
+        <f t="shared" si="6"/>
+        <v>18848.041000000001</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="7"/>
+        <v>17849.637999999999</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="8"/>
+        <v>2659.1482943471533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6463,8 +8159,20 @@
       <c r="L142">
         <v>27899.537</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142">
+        <f t="shared" si="6"/>
+        <v>24863.668454545455</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="7"/>
+        <v>25604.477999999999</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="8"/>
+        <v>2386.9778846816894</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6501,8 +8209,20 @@
       <c r="L143">
         <v>2081.3649999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143">
+        <f t="shared" si="6"/>
+        <v>1579.0610000000001</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="7"/>
+        <v>1577.3420000000001</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="8"/>
+        <v>318.53433927851449</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6539,8 +8259,20 @@
       <c r="L144">
         <v>26848.918000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144">
+        <f t="shared" si="6"/>
+        <v>23057.193272727276</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="7"/>
+        <v>22237.664000000001</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="8"/>
+        <v>2121.6841131566262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6577,8 +8309,20 @@
       <c r="L145">
         <v>13579.282999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145">
+        <f t="shared" si="6"/>
+        <v>12438.838272727271</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="7"/>
+        <v>12595.891</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="8"/>
+        <v>769.80080621743832</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6615,8 +8359,20 @@
       <c r="L146">
         <v>11623.027</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146">
+        <f t="shared" si="6"/>
+        <v>10380.195</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="7"/>
+        <v>10153.848</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="8"/>
+        <v>679.31574135507844</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6653,8 +8409,20 @@
       <c r="L147">
         <v>5736.6589999999997</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147">
+        <f t="shared" si="6"/>
+        <v>5052.8634545454543</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="7"/>
+        <v>5001.8029999999999</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="8"/>
+        <v>338.91528307657165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6691,8 +8459,20 @@
       <c r="L148">
         <v>60358.968999999997</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148">
+        <f t="shared" si="6"/>
+        <v>63365.181599999996</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="7"/>
+        <v>59700.7745</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="8"/>
+        <v>7812.8981411089144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6729,8 +8509,20 @@
       <c r="L149">
         <v>55262.697999999997</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149">
+        <f t="shared" si="6"/>
+        <v>49400.674727272715</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="7"/>
+        <v>50383.675999999999</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="8"/>
+        <v>4925.5859360909553</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6767,8 +8559,20 @@
       <c r="L150">
         <v>2677.5140000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150">
+        <f t="shared" si="6"/>
+        <v>2262.7693636363638</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="7"/>
+        <v>2216.9580000000001</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="8"/>
+        <v>210.10846973945283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6805,8 +8609,20 @@
       <c r="L151">
         <v>15163.704</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151">
+        <f t="shared" si="6"/>
+        <v>12988.099090909091</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="7"/>
+        <v>12792.367</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="8"/>
+        <v>1183.3895124156252</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6843,8 +8659,20 @@
       <c r="L152">
         <v>28711.611000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152">
+        <f t="shared" si="6"/>
+        <v>22847.607272727273</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="7"/>
+        <v>22536.052</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="8"/>
+        <v>3575.3960140146332</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6881,8 +8709,20 @@
       <c r="L153">
         <v>1791.2760000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153">
+        <f t="shared" si="6"/>
+        <v>1552.1687272727272</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="7"/>
+        <v>1605.0119999999999</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="8"/>
+        <v>292.94451246749463</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6919,8 +8759,20 @@
       <c r="L154">
         <v>90531.400999999998</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154">
+        <f t="shared" si="6"/>
+        <v>76638.891090909077</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="7"/>
+        <v>77429.471999999994</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="8"/>
+        <v>10391.622402019193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -6957,8 +8809,20 @@
       <c r="L155">
         <v>32895.411</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155">
+        <f t="shared" si="6"/>
+        <v>27012.011909090914</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="7"/>
+        <v>26609.675999999999</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="8"/>
+        <v>3385.605386088504</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -6995,8 +8859,20 @@
       <c r="L156">
         <v>34063.834000000003</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156">
+        <f t="shared" si="6"/>
+        <v>29717.949818181816</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="7"/>
+        <v>28774.403999999999</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="8"/>
+        <v>1982.8334019239153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7033,8 +8909,20 @@
       <c r="L157">
         <v>2145.4499999999998</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157">
+        <f t="shared" si="6"/>
+        <v>1861.9391818181821</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="7"/>
+        <v>1936.3989999999999</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="8"/>
+        <v>222.18155015833955</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7071,8 +8959,20 @@
       <c r="L158">
         <v>13403.227000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158">
+        <f t="shared" si="6"/>
+        <v>12483.990090909092</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="7"/>
+        <v>12600.315000000001</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="8"/>
+        <v>793.61157819886387</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7109,8 +9009,20 @@
       <c r="L159">
         <v>1503.38</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159">
+        <f t="shared" si="6"/>
+        <v>2069.9901428571429</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="7"/>
+        <v>1995.222</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="8"/>
+        <v>695.80254244563503</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7147,8 +9059,20 @@
       <c r="L160">
         <v>38170.875</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160">
+        <f t="shared" si="6"/>
+        <v>33585.026545454544</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="7"/>
+        <v>32736.018</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="8"/>
+        <v>2021.7973033249082</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7185,8 +9109,20 @@
       <c r="L161">
         <v>13000.781000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161">
+        <f t="shared" si="6"/>
+        <v>9805.6181818181813</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="7"/>
+        <v>10049.227999999999</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="8"/>
+        <v>2104.9715060353146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7223,8 +9159,20 @@
       <c r="L162">
         <v>4580.3779999999997</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162">
+        <f t="shared" si="6"/>
+        <v>4064.6860909090906</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="7"/>
+        <v>4276.3090000000002</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="8"/>
+        <v>452.52897393259985</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7261,8 +9209,20 @@
       <c r="L163">
         <v>13876.255999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163">
+        <f t="shared" si="6"/>
+        <v>14299.540636363636</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="7"/>
+        <v>13984.517</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="8"/>
+        <v>1287.0667063474427</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7299,8 +9259,20 @@
       <c r="L164">
         <v>9882.0259999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164">
+        <f t="shared" si="6"/>
+        <v>8834.6481818181819</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="7"/>
+        <v>8853.3029999999999</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="8"/>
+        <v>930.10486015274842</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7337,8 +9309,20 @@
       <c r="L165">
         <v>51263.616999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165">
+        <f t="shared" si="6"/>
+        <v>44827.374272727269</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="7"/>
+        <v>44057.798999999999</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="8"/>
+        <v>3738.7908953106235</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7375,8 +9359,20 @@
       <c r="L166">
         <v>61359.887000000002</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166">
+        <f t="shared" si="6"/>
+        <v>56137.288909090908</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="7"/>
+        <v>55733.353999999999</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="8"/>
+        <v>3493.7984718090561</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7413,8 +9409,20 @@
       <c r="L167" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167">
+        <f t="shared" si="6"/>
+        <v>6046.4179999999997</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="7"/>
+        <v>6052.7875000000004</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="8"/>
+        <v>291.2230242282821</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7451,8 +9459,20 @@
       <c r="L168">
         <v>3208.462</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168">
+        <f t="shared" si="6"/>
+        <v>2729.2743636363634</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="7"/>
+        <v>2726.9</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="8"/>
+        <v>299.22573978796459</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7489,8 +9509,20 @@
       <c r="L169">
         <v>49827.254999999997</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169">
+        <f t="shared" si="6"/>
+        <v>41817.362272727274</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="7"/>
+        <v>42220.434999999998</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="8"/>
+        <v>5690.2774473518921</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7527,8 +9559,20 @@
       <c r="L170">
         <v>3131.0729999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170">
+        <f t="shared" si="6"/>
+        <v>2406.8935454545458</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="7"/>
+        <v>2376.1849999999999</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="8"/>
+        <v>471.08301131549285</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7565,8 +9609,20 @@
       <c r="L171">
         <v>3282.652</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171">
+        <f t="shared" si="6"/>
+        <v>2484.9149090909091</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="7"/>
+        <v>2406.7289999999998</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="8"/>
+        <v>474.45391415003843</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7603,8 +9659,20 @@
       <c r="L172">
         <v>17786.34</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172">
+        <f t="shared" si="6"/>
+        <v>14494.433363636363</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="7"/>
+        <v>14690.334999999999</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="8"/>
+        <v>2024.0669685865946</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7641,8 +9709,20 @@
       <c r="L173">
         <v>5007.549</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173">
+        <f t="shared" si="6"/>
+        <v>6314.7818181818175</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="7"/>
+        <v>6547.0119999999997</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="8"/>
+        <v>904.39816120963974</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7679,8 +9759,20 @@
       <c r="L174">
         <v>1611.691</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174">
+        <f t="shared" si="6"/>
+        <v>1340.0678181818182</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="7"/>
+        <v>1317.7439999999999</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="8"/>
+        <v>167.5970347099373</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7717,8 +9809,20 @@
       <c r="L175">
         <v>5605.3149999999996</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175">
+        <f t="shared" si="6"/>
+        <v>4733.6106363636372</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="7"/>
+        <v>4681.0969999999998</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="8"/>
+        <v>496.85133101366898</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7755,8 +9859,20 @@
       <c r="L176">
         <v>31153.815999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176">
+        <f t="shared" si="6"/>
+        <v>31401.231636363638</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="7"/>
+        <v>31153.815999999999</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="8"/>
+        <v>1415.0457634501624</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7793,8 +9909,20 @@
       <c r="L177">
         <v>11987.24</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177">
+        <f t="shared" si="6"/>
+        <v>10704.80009090909</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="7"/>
+        <v>10694.316000000001</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="8"/>
+        <v>863.78270793058289</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7831,8 +9959,20 @@
       <c r="L178">
         <v>26453.47</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178">
+        <f t="shared" si="6"/>
+        <v>20404.439181818183</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="7"/>
+        <v>19938.485000000001</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="8"/>
+        <v>3869.264733624922</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7869,8 +10009,20 @@
       <c r="L179">
         <v>18680.490000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179">
+        <f t="shared" si="6"/>
+        <v>12814.888727272726</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="7"/>
+        <v>12683.759</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="8"/>
+        <v>3897.4979292082808</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7907,8 +10059,20 @@
       <c r="L180">
         <v>3804.4029999999998</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180">
+        <f t="shared" si="6"/>
+        <v>3158.9708181818187</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="7"/>
+        <v>3046.547</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="8"/>
+        <v>340.88026189082842</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7945,8 +10109,20 @@
       <c r="L181">
         <v>2352.0430000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181">
+        <f t="shared" si="6"/>
+        <v>2029.2944545454548</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="7"/>
+        <v>2043.671</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="8"/>
+        <v>244.24148716234373</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7983,8 +10159,20 @@
       <c r="L182">
         <v>8655.6350000000002</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182">
+        <f t="shared" si="6"/>
+        <v>8339.8136363636368</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="7"/>
+        <v>8415.1530000000002</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="8"/>
+        <v>417.00634167414603</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -8021,8 +10209,20 @@
       <c r="L183">
         <v>68245.486000000004</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183">
+        <f t="shared" si="6"/>
+        <v>63490.943818181819</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="7"/>
+        <v>64537.25</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="8"/>
+        <v>5504.400121247616</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -8059,8 +10259,20 @@
       <c r="L184">
         <v>43620.438999999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184">
+        <f t="shared" si="6"/>
+        <v>38678.930000000008</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="7"/>
+        <v>37774.372000000003</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="8"/>
+        <v>2899.5481774934169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -8097,8 +10309,20 @@
       <c r="L185">
         <v>59495.336000000003</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185">
+        <f t="shared" si="6"/>
+        <v>52142.119454545442</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="7"/>
+        <v>51403.389000000003</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="8"/>
+        <v>4356.7671579252974</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -8135,8 +10359,20 @@
       <c r="L186">
         <v>22445.464</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186">
+        <f t="shared" si="6"/>
+        <v>18329.238181818186</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="7"/>
+        <v>18654.703000000001</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="8"/>
+        <v>3007.7675646303455</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -8173,8 +10409,20 @@
       <c r="L187">
         <v>6990.018</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187">
+        <f t="shared" si="6"/>
+        <v>4951.1769999999997</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="7"/>
+        <v>4802.915</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="8"/>
+        <v>1249.2053549049499</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -8211,8 +10459,20 @@
       <c r="L188">
         <v>2799.6089999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188">
+        <f t="shared" si="6"/>
+        <v>2538.072090909091</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="7"/>
+        <v>2527.413</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="8"/>
+        <v>141.6298683784282</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -8249,8 +10509,20 @@
       <c r="L189">
         <v>12388.272999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189">
+        <f t="shared" si="6"/>
+        <v>16604.603545454545</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="7"/>
+        <v>16790.080000000002</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="8"/>
+        <v>1859.488239722991</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -8287,8 +10559,20 @@
       <c r="L190">
         <v>6876.1</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190">
+        <f t="shared" si="6"/>
+        <v>5103.0848181818183</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="7"/>
+        <v>5000.7610000000004</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="8"/>
+        <v>1055.0856895929217</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -8325,8 +10609,20 @@
       <c r="L191">
         <v>2300.2370000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191">
+        <f t="shared" si="6"/>
+        <v>3494.7360909090903</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="7"/>
+        <v>3792.7449999999999</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="8"/>
+        <v>693.83719130419297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -8363,8 +10659,20 @@
       <c r="L192">
         <v>3997.2069999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192">
+        <f t="shared" si="6"/>
+        <v>3418.4450000000002</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="7"/>
+        <v>3553.0160000000001</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="8"/>
+        <v>486.46163617616958</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -8401,8 +10709,20 @@
       <c r="L193">
         <v>2276.7939999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193">
+        <f t="shared" si="6"/>
+        <v>1923.8684545454546</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="7"/>
+        <v>2119.94</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="8"/>
+        <v>374.89318196824081</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -8439,8 +10759,20 @@
       <c r="L194">
         <v>5281.5349999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194">
+        <f t="shared" si="6"/>
+        <v>4724.5103636363638</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="7"/>
+        <v>4765.7950000000001</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="8"/>
+        <v>399.81520139841427</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -8477,8 +10809,20 @@
       <c r="L195">
         <v>13368.978999999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195">
+        <f t="shared" ref="M195:M225" si="9">AVERAGE(B195:L195)</f>
+        <v>10103.661363636364</v>
+      </c>
+      <c r="N195">
+        <f t="shared" ref="N195:N225" si="10">MEDIAN(B195:L195)</f>
+        <v>9986.9529999999995</v>
+      </c>
+      <c r="O195">
+        <f t="shared" ref="O195:O225" si="11">_xlfn.STDEV.S(B195:L195)</f>
+        <v>2040.3381970127582</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -8515,8 +10859,20 @@
       <c r="L196">
         <v>48026.671999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196">
+        <f t="shared" si="9"/>
+        <v>42564.309454545451</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="10"/>
+        <v>42611.379000000001</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="11"/>
+        <v>3512.8627354160417</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -8553,8 +10909,20 @@
       <c r="L197">
         <v>10725.909</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197">
+        <f t="shared" si="9"/>
+        <v>9035.5008181818193</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="10"/>
+        <v>8799.9249999999993</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="11"/>
+        <v>1016.0758275533246</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -8591,8 +10959,20 @@
       <c r="L198">
         <v>9835.9699999999993</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198">
+        <f t="shared" si="9"/>
+        <v>8164.1187272727266</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="10"/>
+        <v>8109.72</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="11"/>
+        <v>1036.4478874353583</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -8629,8 +11009,20 @@
       <c r="L199">
         <v>16092.347</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199">
+        <f t="shared" si="9"/>
+        <v>12891.972545454546</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="10"/>
+        <v>12758.864</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="11"/>
+        <v>2243.5013782156443</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -8667,8 +11059,20 @@
       <c r="L200">
         <v>20099.126</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200">
+        <f t="shared" si="9"/>
+        <v>14838.41518181818</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="10"/>
+        <v>14674.11</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="11"/>
+        <v>3295.140908362775</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -8705,8 +11109,20 @@
       <c r="L201">
         <v>24266.855</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201">
+        <f t="shared" si="9"/>
+        <v>20864.053545454546</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="10"/>
+        <v>21016.004000000001</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="11"/>
+        <v>2192.9939599366603</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -8743,8 +11159,20 @@
       <c r="L202">
         <v>35924.67</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202">
+        <f t="shared" si="9"/>
+        <v>31586.499181818181</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="10"/>
+        <v>31274.678</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="11"/>
+        <v>2481.6846398223452</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -8781,8 +11209,20 @@
       <c r="L203">
         <v>27633.187000000002</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203">
+        <f t="shared" si="9"/>
+        <v>24080.061454545452</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="10"/>
+        <v>24956.754000000001</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="11"/>
+        <v>2831.3335557892137</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -8819,8 +11259,20 @@
       <c r="L204">
         <v>12483.052</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204">
+        <f t="shared" si="9"/>
+        <v>11178.04909090909</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="10"/>
+        <v>11284.445</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="11"/>
+        <v>701.56215334472745</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -8857,8 +11309,20 @@
       <c r="L205">
         <v>48387.510999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205">
+        <f t="shared" si="9"/>
+        <v>42577.277636363629</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="10"/>
+        <v>42089.455000000002</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="11"/>
+        <v>3471.5580458029576</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -8895,8 +11359,20 @@
       <c r="L206">
         <v>4227.5039999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206">
+        <f t="shared" si="9"/>
+        <v>3545.5964545454549</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="10"/>
+        <v>3390.0749999999998</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="11"/>
+        <v>437.91548465916509</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -8933,8 +11409,20 @@
       <c r="L207">
         <v>15489.876</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207">
+        <f t="shared" si="9"/>
+        <v>14565.951363636361</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="10"/>
+        <v>15117.241</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="11"/>
+        <v>1253.3027417656331</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -8971,8 +11459,20 @@
       <c r="L208">
         <v>6685.5020000000004</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208">
+        <f t="shared" si="9"/>
+        <v>4899.3560909090911</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="10"/>
+        <v>4783.8379999999997</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="11"/>
+        <v>1072.3691334468247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -9009,8 +11509,20 @@
       <c r="L209">
         <v>12254.795</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209">
+        <f t="shared" si="9"/>
+        <v>9604.228454545455</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="10"/>
+        <v>9548.0300000000007</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="11"/>
+        <v>1647.0824532565639</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -9047,8 +11559,20 @@
       <c r="L210">
         <v>3955.1869999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210">
+        <f t="shared" si="9"/>
+        <v>3493.2724545454544</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="10"/>
+        <v>3516.8470000000002</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="11"/>
+        <v>380.37080769043575</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -9085,8 +11609,20 @@
       <c r="L211">
         <v>44728.822</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211">
+        <f t="shared" si="9"/>
+        <v>39946.082909090903</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="10"/>
+        <v>39288.531999999999</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="11"/>
+        <v>2564.6197691888146</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -9123,8 +11659,20 @@
       <c r="L212">
         <v>31416.881000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212">
+        <f t="shared" si="9"/>
+        <v>28106.283636363634</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="10"/>
+        <v>28092.837</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="11"/>
+        <v>2204.8077143633764</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -9161,8 +11709,20 @@
       <c r="L213">
         <v>12283.34</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213">
+        <f t="shared" si="9"/>
+        <v>9622.3806363636377</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="10"/>
+        <v>9559.2649999999994</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="11"/>
+        <v>1638.6454396039519</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -9199,8 +11759,20 @@
       <c r="L214">
         <v>49111.300999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214">
+        <f t="shared" si="9"/>
+        <v>43121.166454545455</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="10"/>
+        <v>42565.796999999999</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="11"/>
+        <v>3485.2217987391664</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -9237,8 +11809,20 @@
       <c r="L215">
         <v>19778.982</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215">
+        <f t="shared" si="9"/>
+        <v>17475.123818181819</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="10"/>
+        <v>17869.786</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="11"/>
+        <v>1754.4737414094186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -9275,8 +11859,20 @@
       <c r="L216">
         <v>11494.699000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216">
+        <f t="shared" si="9"/>
+        <v>8225.601090909091</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="10"/>
+        <v>8112.5140000000001</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="11"/>
+        <v>2031.7055564751231</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -9313,8 +11909,20 @@
       <c r="L217">
         <v>25333.675999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217">
+        <f t="shared" si="9"/>
+        <v>20052.798181818183</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="10"/>
+        <v>19588.156999999999</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="11"/>
+        <v>3157.4263232442645</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -9351,8 +11959,20 @@
       <c r="L218">
         <v>11781.823</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218">
+        <f t="shared" si="9"/>
+        <v>9365.104636363636</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="10"/>
+        <v>9370.9840000000004</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="11"/>
+        <v>1573.9736933824697</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -9389,8 +12009,20 @@
       <c r="L219">
         <v>40890.758000000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219">
+        <f t="shared" si="9"/>
+        <v>35944.574090909089</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="10"/>
+        <v>35311.534</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="11"/>
+        <v>2664.4805005375238</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -9427,8 +12059,20 @@
       <c r="L220">
         <v>15649.039000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220">
+        <f t="shared" si="9"/>
+        <v>14342.966090909089</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="10"/>
+        <v>14729.038</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="11"/>
+        <v>1243.5305421500075</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -9465,8 +12109,20 @@
       <c r="L221">
         <v>50705.269</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221">
+        <f t="shared" si="9"/>
+        <v>44765.261545454545</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="10"/>
+        <v>44236.819000000003</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="11"/>
+        <v>3490.181865451179</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -9503,8 +12159,20 @@
       <c r="L222">
         <v>18828.218000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222">
+        <f t="shared" si="9"/>
+        <v>16589.649363636363</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="10"/>
+        <v>17035.09</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="11"/>
+        <v>1603.6521399002515</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -9541,8 +12209,20 @@
       <c r="L223">
         <v>14024.268</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223">
+        <f t="shared" si="9"/>
+        <v>12381.313545454545</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="10"/>
+        <v>12572.61</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="11"/>
+        <v>1131.3698602337226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -9579,8 +12259,20 @@
       <c r="L224">
         <v>47925.016000000003</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224">
+        <f t="shared" si="9"/>
+        <v>41104.152545454548</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="10"/>
+        <v>41054.485999999997</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="11"/>
+        <v>4421.4098104435216</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -9617,10 +12309,17 @@
       <c r="L225">
         <v>3927.1370000000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>225</v>
+      <c r="M225">
+        <f t="shared" si="9"/>
+        <v>3467.1407272727283</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="10"/>
+        <v>3490.9009999999998</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="11"/>
+        <v>380.61351988968249</v>
       </c>
     </row>
   </sheetData>
